--- a/data/pca/factorExposure/factorExposure_2012-08-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-02.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003107617365810183</v>
+        <v>0.001641929427683883</v>
       </c>
       <c r="C2">
-        <v>0.02860213642148809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02899396067759546</v>
+      </c>
+      <c r="D2">
+        <v>-0.004646100035610643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001469824092045685</v>
+        <v>-0.007239579375929831</v>
       </c>
       <c r="C4">
-        <v>0.08905265906366516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08375446252282202</v>
+      </c>
+      <c r="D4">
+        <v>-0.06458908856660922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006386998754868378</v>
+        <v>-0.01560515288745143</v>
       </c>
       <c r="C6">
-        <v>0.1136424562150207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1191817696373814</v>
+      </c>
+      <c r="D6">
+        <v>-0.01903242187269597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>8.801546577163512e-05</v>
+        <v>-0.004503222790792447</v>
       </c>
       <c r="C7">
-        <v>0.05364803269319443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05864040707616267</v>
+      </c>
+      <c r="D7">
+        <v>-0.03289357546973928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002905022868029526</v>
+        <v>-0.005189200089016342</v>
       </c>
       <c r="C8">
-        <v>0.04149236114304307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03647448446346273</v>
+      </c>
+      <c r="D8">
+        <v>-0.03511338016610136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0005334839753194017</v>
+        <v>-0.006347294862305778</v>
       </c>
       <c r="C9">
-        <v>0.07151285762998244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07394208389058998</v>
+      </c>
+      <c r="D9">
+        <v>-0.06958104387784532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0002224978883248361</v>
+        <v>-0.002167029944132415</v>
       </c>
       <c r="C10">
-        <v>0.05449950132237368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.05004871035219019</v>
+      </c>
+      <c r="D10">
+        <v>0.1853721855797299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.001139416579973435</v>
+        <v>-0.007046966612880788</v>
       </c>
       <c r="C11">
-        <v>0.08788180797108859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.08247852711343948</v>
+      </c>
+      <c r="D11">
+        <v>-0.06712444259735054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002686371710481516</v>
+        <v>-0.005170460290205171</v>
       </c>
       <c r="C12">
-        <v>0.06513442613624183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.06779888114449986</v>
+      </c>
+      <c r="D12">
+        <v>-0.04813083636375352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0034282340629951</v>
+        <v>-0.01001708551707659</v>
       </c>
       <c r="C13">
-        <v>0.06820413909644871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07169165606780768</v>
+      </c>
+      <c r="D13">
+        <v>-0.0563676912246967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001393269896835351</v>
+        <v>-0.0007689672821071165</v>
       </c>
       <c r="C14">
-        <v>0.04575459226984766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0436096836701937</v>
+      </c>
+      <c r="D14">
+        <v>-0.01229857480422755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003007095666533284</v>
+        <v>-0.006992442450807939</v>
       </c>
       <c r="C15">
-        <v>0.03824395534757376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04092807018324914</v>
+      </c>
+      <c r="D15">
+        <v>-0.02484354290262772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001350890484938035</v>
+        <v>-0.005970950322750584</v>
       </c>
       <c r="C16">
-        <v>0.0712874788925463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06716121076890341</v>
+      </c>
+      <c r="D16">
+        <v>-0.05754055734795516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.004368213894494519</v>
+        <v>-0.009730295040624884</v>
       </c>
       <c r="C20">
-        <v>0.07049105824820431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06518464788044881</v>
+      </c>
+      <c r="D20">
+        <v>-0.04948508640654926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006046964120639392</v>
+        <v>-0.009310361532624861</v>
       </c>
       <c r="C21">
-        <v>0.01761211190669247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01990056558437439</v>
+      </c>
+      <c r="D21">
+        <v>-0.04030378968577562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01848879562368898</v>
+        <v>0.007084255068818429</v>
       </c>
       <c r="C22">
-        <v>0.07731875207734784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08610165721194404</v>
+      </c>
+      <c r="D22">
+        <v>-0.1168088554603737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01824203879728458</v>
+        <v>0.006810543088580282</v>
       </c>
       <c r="C23">
-        <v>0.0776891201062086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08650205745679136</v>
+      </c>
+      <c r="D23">
+        <v>-0.1179385767353674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.0006389250499404225</v>
+        <v>-0.006784102935800175</v>
       </c>
       <c r="C24">
-        <v>0.07783772325623638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07883410322273755</v>
+      </c>
+      <c r="D24">
+        <v>-0.06599787398833135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.001193611592286631</v>
+        <v>-0.004441084095806314</v>
       </c>
       <c r="C25">
-        <v>0.08060769497260512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.07989846358490574</v>
+      </c>
+      <c r="D25">
+        <v>-0.063045952093967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-7.569145517213634e-05</v>
+        <v>-0.004090433469235413</v>
       </c>
       <c r="C26">
-        <v>0.0344491560951837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.03977631246966116</v>
+      </c>
+      <c r="D26">
+        <v>-0.0208067918495066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006278388652795819</v>
+        <v>0.001963364221468509</v>
       </c>
       <c r="C28">
-        <v>0.1052558997945356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09956612355383342</v>
+      </c>
+      <c r="D28">
+        <v>0.3263336400125851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0003766042997041803</v>
+        <v>-0.003681130245960325</v>
       </c>
       <c r="C29">
-        <v>0.04512128154019395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04708345366514171</v>
+      </c>
+      <c r="D29">
+        <v>-0.009644830989403415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.0008429208932761591</v>
+        <v>-0.01086570768474752</v>
       </c>
       <c r="C30">
-        <v>0.1298068381294425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1411798948421237</v>
+      </c>
+      <c r="D30">
+        <v>-0.106713616909939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00304577470086879</v>
+        <v>-0.006760906162611159</v>
       </c>
       <c r="C31">
-        <v>0.03954328286902255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0443235663510636</v>
+      </c>
+      <c r="D31">
+        <v>-0.02865837493150829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003454860443663569</v>
+        <v>-0.004415369381017509</v>
       </c>
       <c r="C32">
-        <v>0.03218082857432215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.03763431033840206</v>
+      </c>
+      <c r="D32">
+        <v>-0.01634966410156061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002310988373626903</v>
+        <v>-0.009898522643990241</v>
       </c>
       <c r="C33">
-        <v>0.08517513876620339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09224928434035014</v>
+      </c>
+      <c r="D33">
+        <v>-0.06113158920705637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.0005003087203375039</v>
+        <v>-0.005520636492101483</v>
       </c>
       <c r="C34">
-        <v>0.0598216298196425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.06014043168052802</v>
+      </c>
+      <c r="D34">
+        <v>-0.0568374131718002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002351592627449188</v>
+        <v>-0.005424869831554501</v>
       </c>
       <c r="C35">
-        <v>0.0386437702895275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.04023129510837779</v>
+      </c>
+      <c r="D35">
+        <v>-0.01395112137875245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004253092506691735</v>
+        <v>0.001375274758643616</v>
       </c>
       <c r="C36">
-        <v>0.01790935106659308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.02538099175658838</v>
+      </c>
+      <c r="D36">
+        <v>-0.01975596527368709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.004763458356787701</v>
+        <v>-0.009145356553318433</v>
       </c>
       <c r="C38">
-        <v>0.02826239498697279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03886568385025274</v>
+      </c>
+      <c r="D38">
+        <v>-0.01228397969612688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.008115914535426127</v>
+        <v>0.0001036382868534229</v>
       </c>
       <c r="C39">
-        <v>0.1213100981013232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1148059487019383</v>
+      </c>
+      <c r="D39">
+        <v>-0.08359427004440122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00314880971583744</v>
+        <v>-0.003274882925258536</v>
       </c>
       <c r="C40">
-        <v>0.07978855894794573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08702706586379046</v>
+      </c>
+      <c r="D40">
+        <v>-0.01047932718826581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.003671084403929167</v>
+        <v>-0.00796132394323325</v>
       </c>
       <c r="C41">
-        <v>0.03251055001792726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04237340172190844</v>
+      </c>
+      <c r="D41">
+        <v>-0.04445171556199128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0006723677246093469</v>
+        <v>-0.004462445851662972</v>
       </c>
       <c r="C43">
-        <v>0.05017619690682365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.0539330007003723</v>
+      </c>
+      <c r="D43">
+        <v>-0.02691628905856405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005199820058264084</v>
+        <v>-0.003012772021893428</v>
       </c>
       <c r="C44">
-        <v>0.1172504640181161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1041315029436206</v>
+      </c>
+      <c r="D44">
+        <v>-0.06306103821258381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001361576080180416</v>
+        <v>-0.0009727708118297215</v>
       </c>
       <c r="C46">
-        <v>0.03469526817589007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03182422516166591</v>
+      </c>
+      <c r="D46">
+        <v>-0.03426163517468506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003867640250943401</v>
+        <v>-0.003356139813575604</v>
       </c>
       <c r="C47">
-        <v>0.03358319744907812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0358282517219979</v>
+      </c>
+      <c r="D47">
+        <v>-0.0196125461568035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.005020339682641975</v>
+        <v>-0.007961716562939666</v>
       </c>
       <c r="C48">
-        <v>0.02679795743668431</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03216421927136764</v>
+      </c>
+      <c r="D48">
+        <v>-0.02731381922111971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.008548291557557161</v>
+        <v>-0.02009718674155349</v>
       </c>
       <c r="C49">
-        <v>0.2009759971099519</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1868848170977593</v>
+      </c>
+      <c r="D49">
+        <v>-0.01125763210635448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0005137178810230142</v>
+        <v>-0.004440642171738525</v>
       </c>
       <c r="C50">
-        <v>0.0322011541442495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04310559123171336</v>
+      </c>
+      <c r="D50">
+        <v>-0.03744370291314898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003693937360580117</v>
+        <v>-0.004063615972764754</v>
       </c>
       <c r="C51">
-        <v>0.02150408084192675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02769746799129473</v>
+      </c>
+      <c r="D51">
+        <v>-0.0236047183125804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01083112504797435</v>
+        <v>-0.02310727081281517</v>
       </c>
       <c r="C53">
-        <v>0.1798176475557683</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.1718384949800363</v>
+      </c>
+      <c r="D53">
+        <v>-0.02001240975256946</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004144484687329987</v>
+        <v>-0.009779761180872901</v>
       </c>
       <c r="C54">
-        <v>0.05806475396415634</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05795527723351428</v>
+      </c>
+      <c r="D54">
+        <v>-0.03866007899594651</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004094808573666084</v>
+        <v>-0.01095153431578177</v>
       </c>
       <c r="C55">
-        <v>0.1173849054421619</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1091930217485351</v>
+      </c>
+      <c r="D55">
+        <v>-0.03288959804723558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01113970722589004</v>
+        <v>-0.022493842578156</v>
       </c>
       <c r="C56">
-        <v>0.1801428070647795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1722638686029972</v>
+      </c>
+      <c r="D56">
+        <v>-0.0160155237677548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003500901860713674</v>
+        <v>-0.01805475945990759</v>
       </c>
       <c r="C58">
-        <v>0.1091994527523237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1062218157157722</v>
+      </c>
+      <c r="D58">
+        <v>-0.05681931130043777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001708052684485731</v>
+        <v>-0.01030233261263062</v>
       </c>
       <c r="C59">
-        <v>0.1485423788675668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1665713318415263</v>
+      </c>
+      <c r="D59">
+        <v>0.3504286258074154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01107822891708463</v>
+        <v>-0.02770601776779962</v>
       </c>
       <c r="C60">
-        <v>0.2161664402748063</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2248396284774458</v>
+      </c>
+      <c r="D60">
+        <v>-0.01926571402357835</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.007801829465100763</v>
+        <v>0.001117294698009138</v>
       </c>
       <c r="C61">
-        <v>0.1010471095082753</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09500507456306669</v>
+      </c>
+      <c r="D61">
+        <v>-0.06103868155489544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1504603076277727</v>
+        <v>-0.1553064917040355</v>
       </c>
       <c r="C62">
-        <v>0.1072162473662187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1026498638614009</v>
+      </c>
+      <c r="D62">
+        <v>-0.01742403957821245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.002283109120657385</v>
+        <v>-0.006933132950627951</v>
       </c>
       <c r="C63">
-        <v>0.05181817360288923</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05321607026522479</v>
+      </c>
+      <c r="D63">
+        <v>-0.03276869275501885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01004911918483309</v>
+        <v>-0.01742634509325461</v>
       </c>
       <c r="C64">
-        <v>0.1164216708981342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.1112644414287</v>
+      </c>
+      <c r="D64">
+        <v>-0.05084116240990458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00950194714797298</v>
+        <v>-0.01793430366732534</v>
       </c>
       <c r="C65">
-        <v>0.1242313195311846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1194674413269783</v>
+      </c>
+      <c r="D65">
+        <v>-0.01888835226542565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.002640514727202944</v>
+        <v>-0.01437225008874694</v>
       </c>
       <c r="C66">
-        <v>0.1638181922516547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.163169894740357</v>
+      </c>
+      <c r="D66">
+        <v>-0.1160411377864073</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.008844442938839731</v>
+        <v>-0.01586753099944585</v>
       </c>
       <c r="C67">
-        <v>0.06232957482295404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07220028555135692</v>
+      </c>
+      <c r="D67">
+        <v>-0.02502522839100695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004571728686597126</v>
+        <v>-0.0002416592761087351</v>
       </c>
       <c r="C68">
-        <v>0.08167778359766399</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08033784430365552</v>
+      </c>
+      <c r="D68">
+        <v>0.2617851134748666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.0009345658764460581</v>
+        <v>-0.006639529859780398</v>
       </c>
       <c r="C69">
-        <v>0.04577012610733849</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05239990816604632</v>
+      </c>
+      <c r="D69">
+        <v>-0.0364049735776795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001690009112723714</v>
+        <v>-0.002702032464523134</v>
       </c>
       <c r="C70">
-        <v>0.003766454971047583</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.008903882134433905</v>
+      </c>
+      <c r="D70">
+        <v>0.002110080384782875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-2.296310547770904e-05</v>
+        <v>-0.004966376212577978</v>
       </c>
       <c r="C71">
-        <v>0.08897700606020031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08603673397092035</v>
+      </c>
+      <c r="D71">
+        <v>0.3040270985688256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008115483775714236</v>
+        <v>-0.01916680065167832</v>
       </c>
       <c r="C72">
-        <v>0.1646786450271174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1580289794813227</v>
+      </c>
+      <c r="D72">
+        <v>-0.008836344425263506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01519600250436886</v>
+        <v>-0.03306946577764559</v>
       </c>
       <c r="C73">
-        <v>0.2924389812461496</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.2827379080213956</v>
+      </c>
+      <c r="D73">
+        <v>-0.05469836716983296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004096360902580773</v>
+        <v>-0.002675606950173203</v>
       </c>
       <c r="C74">
-        <v>0.1068299802055425</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1027429884273634</v>
+      </c>
+      <c r="D74">
+        <v>-0.03221790419111786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002324574257487486</v>
+        <v>-0.01313031272154254</v>
       </c>
       <c r="C75">
-        <v>0.1197287733111061</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1186197672090804</v>
+      </c>
+      <c r="D75">
+        <v>-0.02623138824713594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01351010082306882</v>
+        <v>-0.02353251408593783</v>
       </c>
       <c r="C76">
-        <v>0.1515717846873285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1453955959654173</v>
+      </c>
+      <c r="D76">
+        <v>-0.05568258342232055</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01137207779874225</v>
+        <v>-0.02168177867521362</v>
       </c>
       <c r="C77">
-        <v>0.1104860307769139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1078296541109003</v>
+      </c>
+      <c r="D77">
+        <v>-0.04648039070934643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.006665504605847837</v>
+        <v>-0.01511835296544713</v>
       </c>
       <c r="C78">
-        <v>0.08847548744591803</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1021045940995157</v>
+      </c>
+      <c r="D78">
+        <v>-0.07799451887012844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03020957025349799</v>
+        <v>-0.04040069482135028</v>
       </c>
       <c r="C79">
-        <v>0.1705933420644883</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1565118187777386</v>
+      </c>
+      <c r="D79">
+        <v>-0.02919971611683095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006572072118037494</v>
+        <v>-0.009995454866659974</v>
       </c>
       <c r="C80">
-        <v>0.03783758552053321</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03959492559640439</v>
+      </c>
+      <c r="D80">
+        <v>-0.03017910298542557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.007317899577930002</v>
+        <v>-0.01724831201686137</v>
       </c>
       <c r="C81">
-        <v>0.1281311430043834</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.1320648668370049</v>
+      </c>
+      <c r="D81">
+        <v>-0.03437715486286375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01009755249520343</v>
+        <v>-0.02104785385931008</v>
       </c>
       <c r="C82">
-        <v>0.1488797813931192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.137112814753917</v>
+      </c>
+      <c r="D82">
+        <v>-0.03689552621225688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004663375961619377</v>
+        <v>-0.01242800863973426</v>
       </c>
       <c r="C83">
-        <v>0.07361407373037376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06526510841273202</v>
+      </c>
+      <c r="D83">
+        <v>-0.04522275216484063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004020789971781199</v>
+        <v>-0.007333490153135681</v>
       </c>
       <c r="C84">
-        <v>0.02435939653319487</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.03477776421311127</v>
+      </c>
+      <c r="D84">
+        <v>-0.01342623010782874</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02101993155363006</v>
+        <v>-0.03024632525446633</v>
       </c>
       <c r="C85">
-        <v>0.1396582615610518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1229899858983936</v>
+      </c>
+      <c r="D85">
+        <v>-0.03996906152438917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001880187581678923</v>
+        <v>-0.004138477973273303</v>
       </c>
       <c r="C86">
-        <v>0.04336609032220692</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.05057526683716133</v>
+      </c>
+      <c r="D86">
+        <v>-0.02115029168023275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00471426541379267</v>
+        <v>-0.01309548727680846</v>
       </c>
       <c r="C87">
-        <v>0.1401685379054706</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1296967151878368</v>
+      </c>
+      <c r="D87">
+        <v>-0.07155274951368007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.007493069222352321</v>
+        <v>0.002577220887376044</v>
       </c>
       <c r="C88">
-        <v>0.06347486597914676</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06392661926596431</v>
+      </c>
+      <c r="D88">
+        <v>-0.027390242875334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01075636704350654</v>
+        <v>0.001789183654986531</v>
       </c>
       <c r="C89">
-        <v>0.1248257365347833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.1287376822489016</v>
+      </c>
+      <c r="D89">
+        <v>0.3210710978345986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001606655113047893</v>
+        <v>-0.005400448524385758</v>
       </c>
       <c r="C90">
-        <v>0.1147114371453703</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.1126857903585053</v>
+      </c>
+      <c r="D90">
+        <v>0.3163883667994805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.003385392714887753</v>
+        <v>-0.01145388341818042</v>
       </c>
       <c r="C91">
-        <v>0.09875997077377316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09838622362582398</v>
+      </c>
+      <c r="D91">
+        <v>-0.02682132501408772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005223789833290878</v>
+        <v>-0.0002841595221405032</v>
       </c>
       <c r="C92">
-        <v>0.1363963022753899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.12361866371706</v>
+      </c>
+      <c r="D92">
+        <v>0.326601596491362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001759420416385826</v>
+        <v>-0.003476835698828914</v>
       </c>
       <c r="C93">
-        <v>0.1066633640217398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1023876002557206</v>
+      </c>
+      <c r="D93">
+        <v>0.3003870660989491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0128252484538332</v>
+        <v>-0.02310678146239353</v>
       </c>
       <c r="C94">
-        <v>0.1512841153219903</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.135710776922934</v>
+      </c>
+      <c r="D94">
+        <v>-0.05350323228267981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.01005287386452634</v>
+        <v>-0.01823888273155948</v>
       </c>
       <c r="C95">
-        <v>0.1221255790585312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1218020253021849</v>
+      </c>
+      <c r="D95">
+        <v>-0.06636870520379075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01933333277164458</v>
+        <v>-0.03877353181689391</v>
       </c>
       <c r="C97">
-        <v>0.1990890270829108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2256156413358265</v>
+      </c>
+      <c r="D97">
+        <v>0.009463744832886646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01689695631058224</v>
+        <v>-0.04136944449548716</v>
       </c>
       <c r="C98">
-        <v>0.2528643729652201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2639611150739608</v>
+      </c>
+      <c r="D98">
+        <v>-0.03083230659592107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9859054470304877</v>
+        <v>-0.9793799062105992</v>
       </c>
       <c r="C99">
-        <v>-0.05527311456122353</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1296489733657364</v>
+      </c>
+      <c r="D99">
+        <v>0.0255188984877899</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0003493353573152805</v>
+        <v>-0.003671648950969583</v>
       </c>
       <c r="C101">
-        <v>0.0453935655934412</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04727628589212546</v>
+      </c>
+      <c r="D101">
+        <v>-0.01030210823554275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
